--- a/data/trans_orig/IP22-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP22-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E979DD1-FC9B-41A3-8BD8-A1B320DA2C0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEB99356-102E-4CFB-8510-41AA9B77D1D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3FBA75A3-15EC-467D-8286-BC9F81CA1C68}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F3A99CA1-F7A4-49A4-86CC-24EF774B0042}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="384">
   <si>
     <t>Menores que han tenido que utilizar algún servicio de urgencia en los últimos 12 meses en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -107,34 +107,34 @@
     <t>84,39%</t>
   </si>
   <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
+    <t>77,13%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
   </si>
   <si>
     <t>86,71%</t>
   </si>
   <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
   </si>
   <si>
     <t>85,57%</t>
   </si>
   <si>
-    <t>80,59%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
   </si>
   <si>
     <t>0,75%</t>
   </si>
   <si>
-    <t>3,75%</t>
+    <t>4,93%</t>
   </si>
   <si>
     <t>1,4%</t>
@@ -143,1042 +143,1054 @@
     <t>0,36%</t>
   </si>
   <si>
-    <t>1,95%</t>
+    <t>1,83%</t>
   </si>
   <si>
     <t>14,87%</t>
   </si>
   <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
   </si>
   <si>
     <t>13,29%</t>
   </si>
   <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
   </si>
   <si>
     <t>14,06%</t>
   </si>
   <si>
-    <t>10,45%</t>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>78,28%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>75,95%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
   </si>
   <si>
     <t>18,99%</t>
   </si>
   <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>78,28%</t>
-  </si>
-  <si>
-    <t>75,11%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>76,02%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>74,78%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>79,59%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>75,81%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>80,93%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>78,34%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores que han tenido que utilizar algún servicio de urgencia en los últimos 12 meses en 2012 (Tasa respuesta: 99,76%)</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>59,57%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>69,59%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>67,72%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>72,03%</t>
+  </si>
+  <si>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>79,69%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>69,78%</t>
+  </si>
+  <si>
+    <t>80,42%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
   </si>
   <si>
     <t>23,57%</t>
   </si>
   <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>74,78%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>74,72%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>78,09%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>73,38%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>74,36%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>Menores que han tenido que utilizar algún servicio de urgencia en los últimos 12 meses en 2016 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>73,32%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>80,08%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
   </si>
   <si>
     <t>16,85%</t>
   </si>
   <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores que han tenido que utilizar algún servicio de urgencia en los últimos 12 meses en 2012 (Tasa respuesta: 99,76%)</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>59,75%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>69,46%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>67,5%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
-  </si>
-  <si>
-    <t>68,74%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>71,96%</t>
-  </si>
-  <si>
-    <t>76,58%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
   </si>
   <si>
     <t>2,01%</t>
   </si>
   <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>Menores que han tenido que utilizar algún servicio de urgencia en los últimos 12 meses en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>71,17%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>70,63%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>74,54%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
   </si>
   <si>
     <t>0,3%</t>
   </si>
   <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>69,12%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>69,62%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>Menores que han tenido que utilizar algún servicio de urgencia en los últimos 12 meses en 2015 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>73,83%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
   </si>
   <si>
     <t>14,29%</t>
   </si>
   <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>Menores que han tenido que utilizar algún servicio de urgencia en los últimos 12 meses en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>70,68%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
   </si>
   <si>
     <t>16,74%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>75,13%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
   </si>
 </sst>
 </file>
@@ -1590,7 +1602,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88A98F54-7CF0-43CF-A803-2981F51234B7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0CEB8F1-4FAB-486C-B7D5-6CA541BEB572}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2342,10 +2354,10 @@
         <v>72</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M16" s="7">
         <v>381</v>
@@ -2354,13 +2366,13 @@
         <v>259818</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2375,13 +2387,13 @@
         <v>1934</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -2390,13 +2402,13 @@
         <v>1278</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
@@ -2405,13 +2417,13 @@
         <v>3212</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2426,13 +2438,13 @@
         <v>37954</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H18" s="7">
         <v>47</v>
@@ -2441,13 +2453,13 @@
         <v>31220</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M18" s="7">
         <v>104</v>
@@ -2456,13 +2468,13 @@
         <v>69174</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2530,13 +2542,13 @@
         <v>565671</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H20" s="7">
         <v>817</v>
@@ -2545,13 +2557,13 @@
         <v>549360</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M20" s="7">
         <v>1668</v>
@@ -2560,13 +2572,13 @@
         <v>1115031</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2581,13 +2593,13 @@
         <v>3262</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H21" s="7">
         <v>2</v>
@@ -2596,13 +2608,13 @@
         <v>1278</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="M21" s="7">
         <v>7</v>
@@ -2611,13 +2623,13 @@
         <v>4540</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>54</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2632,13 +2644,13 @@
         <v>153767</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H22" s="7">
         <v>199</v>
@@ -2647,13 +2659,13 @@
         <v>130383</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M22" s="7">
         <v>429</v>
@@ -2662,10 +2674,10 @@
         <v>284150</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>116</v>
+        <v>43</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>117</v>
@@ -2744,7 +2756,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F9E60E0-D3BB-4B5B-9C13-C6B9C6E8682D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E347365-FE80-4091-BD37-1946E8AB1068}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3078,7 +3090,7 @@
         <v>102</v>
       </c>
       <c r="I8" s="7">
-        <v>71257</v>
+        <v>71258</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>123</v>
@@ -3231,7 +3243,7 @@
         <v>134</v>
       </c>
       <c r="I11" s="7">
-        <v>92368</v>
+        <v>92369</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>13</v>
@@ -3269,7 +3281,7 @@
         <v>508</v>
       </c>
       <c r="D12" s="7">
-        <v>354477</v>
+        <v>354478</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>143</v>
@@ -3326,7 +3338,7 @@
         <v>152</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>107</v>
+        <v>58</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>153</v>
@@ -3422,7 +3434,7 @@
         <v>705</v>
       </c>
       <c r="D15" s="7">
-        <v>492147</v>
+        <v>492148</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -3562,10 +3574,10 @@
         <v>182</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>132</v>
+        <v>183</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3580,13 +3592,13 @@
         <v>40877</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>116</v>
+        <v>186</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H18" s="7">
         <v>54</v>
@@ -3595,13 +3607,13 @@
         <v>39021</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M18" s="7">
         <v>111</v>
@@ -3610,13 +3622,13 @@
         <v>79898</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>67</v>
+        <v>191</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3684,13 +3696,13 @@
         <v>543535</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="H20" s="7">
         <v>781</v>
@@ -3699,13 +3711,13 @@
         <v>542928</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="M20" s="7">
         <v>1558</v>
@@ -3714,13 +3726,13 @@
         <v>1086462</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3738,10 +3750,10 @@
         <v>152</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H21" s="7">
         <v>6</v>
@@ -3750,13 +3762,13 @@
         <v>4121</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>77</v>
+        <v>206</v>
       </c>
       <c r="M21" s="7">
         <v>15</v>
@@ -3765,13 +3777,13 @@
         <v>10526</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>204</v>
+        <v>55</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>180</v>
+        <v>104</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>205</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3786,13 +3798,13 @@
         <v>200412</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H22" s="7">
         <v>237</v>
@@ -3801,13 +3813,13 @@
         <v>163697</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M22" s="7">
         <v>521</v>
@@ -3816,13 +3828,13 @@
         <v>364109</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3898,7 +3910,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{872AB63D-BFB9-4C9C-BC26-3A6A3F58646D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{495F6CD5-A183-4258-80D2-564887375879}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3915,7 +3927,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4204,13 +4216,13 @@
         <v>60547</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H8" s="7">
         <v>74</v>
@@ -4219,13 +4231,13 @@
         <v>49094</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M8" s="7">
         <v>161</v>
@@ -4234,13 +4246,13 @@
         <v>109642</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4255,13 +4267,13 @@
         <v>665</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -4276,7 +4288,7 @@
         <v>17</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
@@ -4285,13 +4297,13 @@
         <v>665</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>228</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4479,10 +4491,10 @@
         <v>248</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>80</v>
+        <v>249</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -4491,13 +4503,13 @@
         <v>6950</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>204</v>
+        <v>55</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>33</v>
+        <v>251</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4512,13 +4524,13 @@
         <v>82341</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>113</v>
+        <v>253</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="H14" s="7">
         <v>115</v>
@@ -4527,13 +4539,13 @@
         <v>73128</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="M14" s="7">
         <v>231</v>
@@ -4542,13 +4554,13 @@
         <v>155469</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4616,13 +4628,13 @@
         <v>152557</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>260</v>
+        <v>18</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H16" s="7">
         <v>204</v>
@@ -4631,13 +4643,13 @@
         <v>138981</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M16" s="7">
         <v>424</v>
@@ -4646,13 +4658,13 @@
         <v>291538</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4667,13 +4679,13 @@
         <v>2678</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -4688,7 +4700,7 @@
         <v>16</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
@@ -4700,10 +4712,10 @@
         <v>129</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>271</v>
+        <v>33</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4718,13 +4730,13 @@
         <v>31441</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H18" s="7">
         <v>53</v>
@@ -4733,13 +4745,13 @@
         <v>33094</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>92</v>
+        <v>279</v>
       </c>
       <c r="M18" s="7">
         <v>99</v>
@@ -4748,13 +4760,13 @@
         <v>64535</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>65</v>
+        <v>282</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4822,13 +4834,13 @@
         <v>619499</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>217</v>
+        <v>284</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="H20" s="7">
         <v>867</v>
@@ -4837,13 +4849,13 @@
         <v>580287</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="M20" s="7">
         <v>1753</v>
@@ -4852,13 +4864,13 @@
         <v>1199786</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>72</v>
+        <v>290</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4873,13 +4885,13 @@
         <v>3343</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="H21" s="7">
         <v>11</v>
@@ -4888,13 +4900,13 @@
         <v>7578</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>202</v>
+        <v>295</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="M21" s="7">
         <v>16</v>
@@ -4906,10 +4918,10 @@
         <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>132</v>
+        <v>183</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>77</v>
+        <v>297</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4924,13 +4936,13 @@
         <v>121184</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="H22" s="7">
         <v>183</v>
@@ -4939,13 +4951,13 @@
         <v>116506</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="M22" s="7">
         <v>356</v>
@@ -4954,13 +4966,13 @@
         <v>237690</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5036,7 +5048,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEBEFE4A-2037-4D5F-9F67-C68817798C20}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF5A85D-2E98-4DB0-93FF-438F45878748}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5053,7 +5065,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5358,13 +5370,13 @@
         <v>48409</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="H8" s="7">
         <v>60</v>
@@ -5373,13 +5385,13 @@
         <v>43919</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="M8" s="7">
         <v>130</v>
@@ -5388,13 +5400,13 @@
         <v>92328</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5415,7 +5427,7 @@
         <v>17</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -5430,7 +5442,7 @@
         <v>17</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -5445,7 +5457,7 @@
         <v>17</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>311</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5460,13 +5472,13 @@
         <v>10348</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -5475,13 +5487,13 @@
         <v>7283</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="M10" s="7">
         <v>22</v>
@@ -5490,13 +5502,13 @@
         <v>17631</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5564,13 +5576,13 @@
         <v>423353</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="H12" s="7">
         <v>549</v>
@@ -5579,13 +5591,13 @@
         <v>386772</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>280</v>
+        <v>332</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="M12" s="7">
         <v>1111</v>
@@ -5594,13 +5606,13 @@
         <v>810126</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5621,7 +5633,7 @@
         <v>17</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -5636,7 +5648,7 @@
         <v>17</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>157</v>
+        <v>338</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -5651,7 +5663,7 @@
         <v>17</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5666,13 +5678,13 @@
         <v>69011</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="H14" s="7">
         <v>92</v>
@@ -5681,13 +5693,13 @@
         <v>61632</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="M14" s="7">
         <v>186</v>
@@ -5696,13 +5708,13 @@
         <v>130642</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5770,13 +5782,13 @@
         <v>145030</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>340</v>
+        <v>100</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="H16" s="7">
         <v>182</v>
@@ -5785,13 +5797,13 @@
         <v>122080</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="M16" s="7">
         <v>381</v>
@@ -5800,13 +5812,13 @@
         <v>267109</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5827,7 +5839,7 @@
         <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -5842,7 +5854,7 @@
         <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -5872,13 +5884,13 @@
         <v>29553</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="H18" s="7">
         <v>48</v>
@@ -5887,13 +5899,13 @@
         <v>29290</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="M18" s="7">
         <v>87</v>
@@ -5902,13 +5914,13 @@
         <v>58843</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>359</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5976,13 +5988,13 @@
         <v>616792</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="H20" s="7">
         <v>792</v>
@@ -5991,13 +6003,13 @@
         <v>553942</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="M20" s="7">
         <v>1623</v>
@@ -6006,13 +6018,13 @@
         <v>1170734</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>366</v>
+        <v>246</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>367</v>
+        <v>283</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6033,7 +6045,7 @@
         <v>17</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -6048,7 +6060,7 @@
         <v>17</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -6063,7 +6075,7 @@
         <v>17</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6078,13 +6090,13 @@
         <v>108912</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>373</v>
+        <v>280</v>
       </c>
       <c r="H22" s="7">
         <v>149</v>
@@ -6093,13 +6105,13 @@
         <v>98205</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="M22" s="7">
         <v>295</v>
@@ -6108,13 +6120,13 @@
         <v>207117</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP22-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP22-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEB99356-102E-4CFB-8510-41AA9B77D1D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EF06B3E-7F0F-459A-9CF6-79F641CF48D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F3A99CA1-F7A4-49A4-86CC-24EF774B0042}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{8B2D5533-CB4D-4356-AA1D-3BAA8A09446F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="377">
   <si>
     <t>Menores que han tenido que utilizar algún servicio de urgencia en los últimos 12 meses en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,130 +68,115 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>77,18%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>Sí acudieron a mi domicilio</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>Sí acudí a un centro o servicio</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Sí acudieron a mi domicilio</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>Sí acudí a un centro o servicio</t>
-  </si>
-  <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>77,13%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
     <t>Secundarios</t>
   </si>
   <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>81,79%</t>
+  </si>
+  <si>
     <t>78,28%</t>
   </si>
   <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>75,95%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
+    <t>74,88%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
   </si>
   <si>
     <t>78,65%</t>
@@ -200,475 +185,472 @@
     <t>76,46%</t>
   </si>
   <si>
-    <t>80,95%</t>
+    <t>80,93%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
   </si>
   <si>
     <t>0,14%</t>
   </si>
   <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>74,78%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>74,22%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>78,25%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores que han tenido que utilizar algún servicio de urgencia en los últimos 12 meses en 2012 (Tasa respuesta: 99,76%)</t>
+  </si>
+  <si>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>69,91%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>59,56%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
+  </si>
+  <si>
+    <t>73,27%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>72,03%</t>
+  </si>
+  <si>
+    <t>68,55%</t>
+  </si>
+  <si>
+    <t>75,6%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>71,94%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>69,37%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>72,41%</t>
+  </si>
+  <si>
+    <t>69,6%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
     <t>0,72%</t>
   </si>
   <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>74,78%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>79,59%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>73,99%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>80,93%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores que han tenido que utilizar algún servicio de urgencia en los últimos 12 meses en 2012 (Tasa respuesta: 99,76%)</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>59,57%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>69,59%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>67,72%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
-  </si>
-  <si>
-    <t>68,28%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>71,55%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>69,78%</t>
-  </si>
-  <si>
-    <t>80,42%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>79,96%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>78,63%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
     <t>0,41%</t>
   </si>
   <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>73,38%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
+    <t>1,21%</t>
   </si>
   <si>
     <t>23,03%</t>
@@ -677,520 +659,517 @@
     <t>20,52%</t>
   </si>
   <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
   </si>
   <si>
     <t>Menores que han tenido que utilizar algún servicio de urgencia en los últimos 12 meses en 2016 (Tasa respuesta: 99,95%)</t>
   </si>
   <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>72,83%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
     <t>88,24%</t>
   </si>
   <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>73,32%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
   </si>
   <si>
     <t>85,66%</t>
   </si>
   <si>
-    <t>80,31%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
   </si>
   <si>
     <t>2,13%</t>
   </si>
   <si>
+    <t>5,61%</t>
+  </si>
+  <si>
     <t>0,52%</t>
   </si>
   <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
     <t>10,79%</t>
   </si>
   <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
   </si>
   <si>
     <t>13,82%</t>
   </si>
   <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
   </si>
   <si>
     <t>83,15%</t>
   </si>
   <si>
-    <t>80,08%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
   </si>
   <si>
     <t>83,1%</t>
   </si>
   <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
+    <t>84,92%</t>
   </si>
   <si>
     <t>1,47%</t>
   </si>
   <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
   </si>
   <si>
     <t>0,35%</t>
   </si>
   <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>Menores que han tenido que utilizar algún servicio de urgencia en los últimos 12 meses en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>80,5%</t>
+  </si>
+  <si>
+    <t>53,78%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>69,94%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>67,32%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
   </si>
   <si>
     <t>13,18%</t>
   </si>
   <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>84,36%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>Menores que han tenido que utilizar algún servicio de urgencia en los últimos 12 meses en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>71,17%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>70,63%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>74,54%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
   </si>
 </sst>
 </file>
@@ -1602,8 +1581,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0CEB8F1-4FAB-486C-B7D5-6CA541BEB572}">
-  <dimension ref="A1:Q24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6CD8EDB-B222-427D-B35B-5647C5F002D4}">
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1720,10 +1699,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>118</v>
       </c>
       <c r="D4" s="7">
-        <v>726</v>
+        <v>78786</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1735,38 +1714,40 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>110</v>
+      </c>
+      <c r="I4" s="7">
+        <v>73286</v>
+      </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>228</v>
       </c>
       <c r="N4" s="7">
-        <v>726</v>
+        <v>152072</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -1775,90 +1756,94 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>648</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>648</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="7">
+        <v>18</v>
+      </c>
+      <c r="D6" s="7">
+        <v>12081</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="7">
         <v>19</v>
       </c>
-      <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+      <c r="I6" s="7">
+        <v>12911</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="N6" s="7">
-        <v>0</v>
+        <v>24992</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1867,202 +1852,204 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>136</v>
       </c>
       <c r="D7" s="7">
-        <v>726</v>
+        <v>90867</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>130</v>
+      </c>
+      <c r="I7" s="7">
+        <v>86845</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>266</v>
       </c>
       <c r="N7" s="7">
-        <v>726</v>
+        <v>177712</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>110</v>
+        <v>494</v>
       </c>
       <c r="D8" s="7">
-        <v>73285</v>
+        <v>329005</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="H8" s="7">
-        <v>118</v>
+        <v>564</v>
       </c>
       <c r="I8" s="7">
-        <v>78786</v>
+        <v>373409</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="M8" s="7">
-        <v>228</v>
+        <v>1058</v>
       </c>
       <c r="N8" s="7">
-        <v>152072</v>
+        <v>702414</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C9" s="7">
+        <v>0</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="7">
         <v>1</v>
       </c>
-      <c r="D9" s="7">
-        <v>648</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="7">
-        <v>0</v>
-      </c>
       <c r="I9" s="7">
-        <v>0</v>
+        <v>680</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
       </c>
       <c r="N9" s="7">
-        <v>648</v>
+        <v>680</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C10" s="7">
-        <v>19</v>
+        <v>134</v>
       </c>
       <c r="D10" s="7">
-        <v>12911</v>
+        <v>87082</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="H10" s="7">
-        <v>18</v>
+        <v>154</v>
       </c>
       <c r="I10" s="7">
-        <v>12081</v>
+        <v>102902</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="M10" s="7">
-        <v>37</v>
+        <v>288</v>
       </c>
       <c r="N10" s="7">
-        <v>24992</v>
+        <v>189984</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2071,204 +2058,204 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>130</v>
+        <v>628</v>
       </c>
       <c r="D11" s="7">
-        <v>86844</v>
+        <v>416087</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="H11" s="7">
-        <v>136</v>
+        <v>719</v>
       </c>
       <c r="I11" s="7">
-        <v>90867</v>
+        <v>476991</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M11" s="7">
-        <v>266</v>
+        <v>1347</v>
       </c>
       <c r="N11" s="7">
-        <v>177712</v>
+        <v>893078</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>564</v>
+        <v>205</v>
       </c>
       <c r="D12" s="7">
-        <v>373409</v>
+        <v>141568</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="H12" s="7">
-        <v>494</v>
+        <v>176</v>
       </c>
       <c r="I12" s="7">
-        <v>329005</v>
+        <v>118250</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="M12" s="7">
-        <v>1058</v>
+        <v>381</v>
       </c>
       <c r="N12" s="7">
-        <v>702414</v>
+        <v>259818</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>680</v>
+        <v>1278</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>1934</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N13" s="7">
-        <v>680</v>
+        <v>3212</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C14" s="7">
-        <v>154</v>
+        <v>47</v>
       </c>
       <c r="D14" s="7">
-        <v>102902</v>
+        <v>31220</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="H14" s="7">
-        <v>134</v>
+        <v>57</v>
       </c>
       <c r="I14" s="7">
-        <v>87082</v>
+        <v>37954</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="M14" s="7">
-        <v>288</v>
+        <v>104</v>
       </c>
       <c r="N14" s="7">
-        <v>189984</v>
+        <v>69174</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2277,204 +2264,204 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>719</v>
+        <v>254</v>
       </c>
       <c r="D15" s="7">
-        <v>476991</v>
+        <v>174066</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="H15" s="7">
-        <v>628</v>
+        <v>236</v>
       </c>
       <c r="I15" s="7">
-        <v>416087</v>
+        <v>158138</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M15" s="7">
-        <v>1347</v>
+        <v>490</v>
       </c>
       <c r="N15" s="7">
-        <v>893078</v>
+        <v>332205</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>176</v>
+        <v>817</v>
       </c>
       <c r="D16" s="7">
-        <v>118250</v>
+        <v>549360</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
-        <v>205</v>
+        <v>850</v>
       </c>
       <c r="I16" s="7">
-        <v>141568</v>
+        <v>564945</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
-        <v>381</v>
+        <v>1667</v>
       </c>
       <c r="N16" s="7">
-        <v>259818</v>
+        <v>1114305</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" s="7">
-        <v>1934</v>
+        <v>1278</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I17" s="7">
-        <v>1278</v>
+        <v>3262</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N17" s="7">
-        <v>3212</v>
+        <v>4540</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C18" s="7">
-        <v>57</v>
+        <v>199</v>
       </c>
       <c r="D18" s="7">
-        <v>37954</v>
+        <v>130383</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="H18" s="7">
-        <v>47</v>
+        <v>230</v>
       </c>
       <c r="I18" s="7">
-        <v>31220</v>
+        <v>153767</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="M18" s="7">
-        <v>104</v>
+        <v>429</v>
       </c>
       <c r="N18" s="7">
-        <v>69174</v>
+        <v>284150</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2483,267 +2470,60 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>236</v>
+        <v>1018</v>
       </c>
       <c r="D19" s="7">
-        <v>158138</v>
+        <v>681021</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="H19" s="7">
-        <v>254</v>
+        <v>1085</v>
       </c>
       <c r="I19" s="7">
-        <v>174066</v>
+        <v>721974</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M19" s="7">
-        <v>490</v>
+        <v>2103</v>
       </c>
       <c r="N19" s="7">
-        <v>332205</v>
+        <v>1402995</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="7">
-        <v>851</v>
-      </c>
-      <c r="D20" s="7">
-        <v>565671</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="H20" s="7">
-        <v>817</v>
-      </c>
-      <c r="I20" s="7">
-        <v>549360</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1668</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1115031</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="7">
-        <v>5</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3262</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="H21" s="7">
-        <v>2</v>
-      </c>
-      <c r="I21" s="7">
-        <v>1278</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="M21" s="7">
-        <v>7</v>
-      </c>
-      <c r="N21" s="7">
-        <v>4540</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="7">
-        <v>230</v>
-      </c>
-      <c r="D22" s="7">
-        <v>153767</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="H22" s="7">
-        <v>199</v>
-      </c>
-      <c r="I22" s="7">
-        <v>130383</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="K22" s="7" t="s">
+      <c r="A20" t="s">
         <v>114</v>
       </c>
-      <c r="L22" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="M22" s="7">
-        <v>429</v>
-      </c>
-      <c r="N22" s="7">
-        <v>284150</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="7">
-        <v>1086</v>
-      </c>
-      <c r="D23" s="7">
-        <v>722700</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I23" s="7">
-        <v>681021</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M23" s="7">
-        <v>2104</v>
-      </c>
-      <c r="N23" s="7">
-        <v>1403721</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>118</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2756,8 +2536,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E347365-FE80-4091-BD37-1946E8AB1068}">
-  <dimension ref="A1:Q24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEB9DD8E-41D0-4D9F-96CA-36121CC4CE61}">
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2773,7 +2553,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2874,53 +2654,55 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="D4" s="7">
-        <v>641</v>
+        <v>71258</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>116</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>83</v>
+      </c>
+      <c r="I4" s="7">
+        <v>58507</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>121</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>185</v>
       </c>
       <c r="N4" s="7">
-        <v>641</v>
+        <v>129765</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>122</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -2929,90 +2711,94 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>125</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>787</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>787</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="D6" s="7">
-        <v>0</v>
+        <v>21111</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>16</v>
+        <v>130</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>17</v>
+        <v>131</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>132</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="I6" s="7">
+        <v>26041</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>134</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>135</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="N6" s="7">
-        <v>0</v>
+        <v>47152</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>16</v>
+        <v>136</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>17</v>
+        <v>137</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3021,202 +2807,204 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>134</v>
       </c>
       <c r="D7" s="7">
-        <v>641</v>
+        <v>92369</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>120</v>
+      </c>
+      <c r="I7" s="7">
+        <v>85335</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>254</v>
       </c>
       <c r="N7" s="7">
-        <v>641</v>
+        <v>177703</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>83</v>
+        <v>501</v>
       </c>
       <c r="D8" s="7">
-        <v>58507</v>
+        <v>346515</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="H8" s="7">
-        <v>102</v>
+        <v>508</v>
       </c>
       <c r="I8" s="7">
-        <v>71258</v>
+        <v>354477</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="M8" s="7">
-        <v>185</v>
+        <v>1009</v>
       </c>
       <c r="N8" s="7">
-        <v>129765</v>
+        <v>700993</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" s="7">
-        <v>787</v>
+        <v>1484</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H9" s="7">
+        <v>6</v>
+      </c>
+      <c r="I9" s="7">
+        <v>4175</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7">
-        <v>0</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>131</v>
-      </c>
       <c r="M9" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N9" s="7">
-        <v>787</v>
+        <v>5660</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>16</v>
+        <v>152</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C10" s="7">
-        <v>36</v>
+        <v>151</v>
       </c>
       <c r="D10" s="7">
-        <v>26041</v>
+        <v>103565</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="H10" s="7">
-        <v>32</v>
+        <v>191</v>
       </c>
       <c r="I10" s="7">
-        <v>21111</v>
+        <v>133494</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="M10" s="7">
-        <v>68</v>
+        <v>342</v>
       </c>
       <c r="N10" s="7">
-        <v>47152</v>
+        <v>237059</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3225,204 +3013,204 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>120</v>
+        <v>654</v>
       </c>
       <c r="D11" s="7">
-        <v>85335</v>
+        <v>451565</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="H11" s="7">
-        <v>134</v>
+        <v>705</v>
       </c>
       <c r="I11" s="7">
-        <v>92369</v>
+        <v>492147</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M11" s="7">
-        <v>254</v>
+        <v>1359</v>
       </c>
       <c r="N11" s="7">
-        <v>177703</v>
+        <v>943712</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>508</v>
+        <v>178</v>
       </c>
       <c r="D12" s="7">
-        <v>354478</v>
+        <v>125155</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="H12" s="7">
-        <v>501</v>
+        <v>185</v>
       </c>
       <c r="I12" s="7">
-        <v>346515</v>
+        <v>129908</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="M12" s="7">
-        <v>1009</v>
+        <v>363</v>
       </c>
       <c r="N12" s="7">
-        <v>700993</v>
+        <v>255064</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>4175</v>
+        <v>2636</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>58</v>
+        <v>172</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>1484</v>
+        <v>1443</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="M13" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N13" s="7">
-        <v>5660</v>
+        <v>4079</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C14" s="7">
-        <v>191</v>
+        <v>54</v>
       </c>
       <c r="D14" s="7">
-        <v>133494</v>
+        <v>39021</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="H14" s="7">
-        <v>151</v>
+        <v>57</v>
       </c>
       <c r="I14" s="7">
-        <v>103565</v>
+        <v>40877</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="M14" s="7">
-        <v>342</v>
+        <v>111</v>
       </c>
       <c r="N14" s="7">
-        <v>237059</v>
+        <v>79898</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3431,204 +3219,204 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>705</v>
+        <v>236</v>
       </c>
       <c r="D15" s="7">
-        <v>492148</v>
+        <v>166812</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="H15" s="7">
-        <v>654</v>
+        <v>244</v>
       </c>
       <c r="I15" s="7">
-        <v>451565</v>
+        <v>172228</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M15" s="7">
-        <v>1359</v>
+        <v>480</v>
       </c>
       <c r="N15" s="7">
-        <v>943712</v>
+        <v>339041</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>185</v>
+        <v>781</v>
       </c>
       <c r="D16" s="7">
-        <v>129908</v>
+        <v>542928</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="H16" s="7">
-        <v>178</v>
+        <v>776</v>
       </c>
       <c r="I16" s="7">
-        <v>125155</v>
+        <v>542893</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="M16" s="7">
-        <v>363</v>
+        <v>1557</v>
       </c>
       <c r="N16" s="7">
-        <v>255064</v>
+        <v>1085821</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>6</v>
+      </c>
+      <c r="D17" s="7">
+        <v>4121</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="H17" s="7">
+        <v>9</v>
+      </c>
+      <c r="I17" s="7">
+        <v>6405</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="M17" s="7">
         <v>15</v>
       </c>
-      <c r="C17" s="7">
-        <v>2</v>
-      </c>
-      <c r="D17" s="7">
-        <v>1443</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="H17" s="7">
-        <v>4</v>
-      </c>
-      <c r="I17" s="7">
-        <v>2636</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="M17" s="7">
-        <v>6</v>
-      </c>
       <c r="N17" s="7">
-        <v>4079</v>
+        <v>10526</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C18" s="7">
-        <v>57</v>
+        <v>237</v>
       </c>
       <c r="D18" s="7">
-        <v>40877</v>
+        <v>163697</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="H18" s="7">
-        <v>54</v>
+        <v>284</v>
       </c>
       <c r="I18" s="7">
-        <v>39021</v>
+        <v>200412</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="M18" s="7">
-        <v>111</v>
+        <v>521</v>
       </c>
       <c r="N18" s="7">
-        <v>79898</v>
+        <v>364109</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3637,267 +3425,60 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>244</v>
+        <v>1024</v>
       </c>
       <c r="D19" s="7">
-        <v>172228</v>
+        <v>710746</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="H19" s="7">
-        <v>236</v>
+        <v>1069</v>
       </c>
       <c r="I19" s="7">
-        <v>166812</v>
+        <v>749710</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M19" s="7">
-        <v>480</v>
+        <v>2093</v>
       </c>
       <c r="N19" s="7">
-        <v>339041</v>
+        <v>1460456</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="7">
-        <v>777</v>
-      </c>
-      <c r="D20" s="7">
-        <v>543535</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="H20" s="7">
-        <v>781</v>
-      </c>
-      <c r="I20" s="7">
-        <v>542928</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1558</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1086462</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="7">
-        <v>9</v>
-      </c>
-      <c r="D21" s="7">
-        <v>6405</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="H21" s="7">
-        <v>6</v>
-      </c>
-      <c r="I21" s="7">
-        <v>4121</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="M21" s="7">
-        <v>15</v>
-      </c>
-      <c r="N21" s="7">
-        <v>10526</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="7">
-        <v>284</v>
-      </c>
-      <c r="D22" s="7">
-        <v>200412</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="H22" s="7">
-        <v>237</v>
-      </c>
-      <c r="I22" s="7">
-        <v>163697</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="M22" s="7">
-        <v>521</v>
-      </c>
-      <c r="N22" s="7">
-        <v>364109</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="7">
-        <v>1070</v>
-      </c>
-      <c r="D23" s="7">
-        <v>750352</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" s="7">
-        <v>1024</v>
-      </c>
-      <c r="I23" s="7">
-        <v>710746</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M23" s="7">
-        <v>2094</v>
-      </c>
-      <c r="N23" s="7">
-        <v>1461097</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>118</v>
+      <c r="A20" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3910,8 +3491,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{495F6CD5-A183-4258-80D2-564887375879}">
-  <dimension ref="A1:Q24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32910FE7-F7F3-46A5-928A-743D721C03DB}">
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3927,7 +3508,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4028,133 +3609,151 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>74</v>
+      </c>
+      <c r="D4" s="7">
+        <v>49094</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>214</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>215</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>216</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>87</v>
+      </c>
+      <c r="I4" s="7">
+        <v>60547</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>217</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>218</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>219</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>161</v>
+      </c>
+      <c r="N4" s="7">
+        <v>109642</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>220</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>221</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>223</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>665</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>224</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N5" s="7">
+        <v>665</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>225</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="D6" s="7">
+        <v>10284</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>227</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>228</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>229</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="I6" s="7">
+        <v>7402</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>230</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>231</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>232</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="N6" s="7">
+        <v>17686</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>233</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>234</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4163,117 +3762,123 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="D7" s="7">
+        <v>59378</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>99</v>
+      </c>
+      <c r="I7" s="7">
+        <v>68614</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>188</v>
+      </c>
+      <c r="N7" s="7">
+        <v>127993</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>87</v>
+        <v>589</v>
       </c>
       <c r="D8" s="7">
-        <v>60547</v>
+        <v>392212</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="H8" s="7">
-        <v>74</v>
+        <v>579</v>
       </c>
       <c r="I8" s="7">
-        <v>49094</v>
+        <v>406394</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="M8" s="7">
-        <v>161</v>
+        <v>1168</v>
       </c>
       <c r="N8" s="7">
-        <v>109642</v>
+        <v>798606</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>224</v>
+        <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D9" s="7">
-        <v>665</v>
+        <v>6950</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>83</v>
+        <v>244</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -4282,79 +3887,79 @@
         <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>227</v>
+        <v>152</v>
       </c>
       <c r="M9" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N9" s="7">
-        <v>665</v>
+        <v>6950</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>16</v>
+        <v>246</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>184</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C10" s="7">
-        <v>11</v>
+        <v>115</v>
       </c>
       <c r="D10" s="7">
-        <v>7402</v>
+        <v>73128</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H10" s="7">
+        <v>116</v>
+      </c>
+      <c r="I10" s="7">
+        <v>82341</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="M10" s="7">
         <v>231</v>
       </c>
-      <c r="H10" s="7">
-        <v>15</v>
-      </c>
-      <c r="I10" s="7">
-        <v>10284</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="M10" s="7">
-        <v>26</v>
-      </c>
       <c r="N10" s="7">
-        <v>17686</v>
+        <v>155469</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4363,204 +3968,204 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>99</v>
+        <v>714</v>
       </c>
       <c r="D11" s="7">
-        <v>68614</v>
+        <v>472290</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="H11" s="7">
-        <v>89</v>
+        <v>695</v>
       </c>
       <c r="I11" s="7">
-        <v>59378</v>
+        <v>488735</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M11" s="7">
-        <v>188</v>
+        <v>1409</v>
       </c>
       <c r="N11" s="7">
-        <v>127993</v>
+        <v>961025</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>579</v>
+        <v>204</v>
       </c>
       <c r="D12" s="7">
-        <v>406394</v>
+        <v>138981</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="H12" s="7">
-        <v>589</v>
+        <v>220</v>
       </c>
       <c r="I12" s="7">
-        <v>392212</v>
+        <v>152557</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="M12" s="7">
-        <v>1168</v>
+        <v>424</v>
       </c>
       <c r="N12" s="7">
-        <v>798606</v>
+        <v>291538</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>628</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="H13" s="7">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I13" s="7">
-        <v>6950</v>
+        <v>2678</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="M13" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N13" s="7">
-        <v>6950</v>
+        <v>3306</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>55</v>
+        <v>126</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>251</v>
+        <v>103</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C14" s="7">
-        <v>116</v>
+        <v>53</v>
       </c>
       <c r="D14" s="7">
-        <v>82341</v>
+        <v>33094</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="H14" s="7">
-        <v>115</v>
+        <v>46</v>
       </c>
       <c r="I14" s="7">
-        <v>73128</v>
+        <v>31441</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="M14" s="7">
-        <v>231</v>
+        <v>99</v>
       </c>
       <c r="N14" s="7">
-        <v>155469</v>
+        <v>64535</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4569,204 +4174,204 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>695</v>
+        <v>258</v>
       </c>
       <c r="D15" s="7">
-        <v>488735</v>
+        <v>172703</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="H15" s="7">
-        <v>714</v>
+        <v>270</v>
       </c>
       <c r="I15" s="7">
-        <v>472290</v>
+        <v>186677</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M15" s="7">
-        <v>1409</v>
+        <v>528</v>
       </c>
       <c r="N15" s="7">
-        <v>961025</v>
+        <v>359379</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>220</v>
+        <v>867</v>
       </c>
       <c r="D16" s="7">
-        <v>152557</v>
+        <v>580287</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>18</v>
+        <v>279</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="H16" s="7">
-        <v>204</v>
+        <v>886</v>
       </c>
       <c r="I16" s="7">
-        <v>138981</v>
+        <v>619499</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="M16" s="7">
-        <v>424</v>
+        <v>1753</v>
       </c>
       <c r="N16" s="7">
-        <v>291538</v>
+        <v>1199786</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D17" s="7">
-        <v>2678</v>
+        <v>7578</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>180</v>
+        <v>288</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>271</v>
+        <v>289</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I17" s="7">
-        <v>628</v>
+        <v>3343</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="M17" s="7">
         <v>16</v>
       </c>
-      <c r="L17" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="M17" s="7">
-        <v>5</v>
-      </c>
       <c r="N17" s="7">
-        <v>3306</v>
+        <v>10921</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>129</v>
+        <v>24</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>33</v>
+        <v>128</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>273</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C18" s="7">
-        <v>46</v>
+        <v>183</v>
       </c>
       <c r="D18" s="7">
-        <v>31441</v>
+        <v>116506</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="H18" s="7">
-        <v>53</v>
+        <v>173</v>
       </c>
       <c r="I18" s="7">
-        <v>33094</v>
+        <v>121184</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="M18" s="7">
-        <v>99</v>
+        <v>356</v>
       </c>
       <c r="N18" s="7">
-        <v>64535</v>
+        <v>237690</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4775,267 +4380,60 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>270</v>
+        <v>1061</v>
       </c>
       <c r="D19" s="7">
-        <v>186677</v>
+        <v>704371</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="H19" s="7">
-        <v>258</v>
+        <v>1064</v>
       </c>
       <c r="I19" s="7">
-        <v>172703</v>
+        <v>744026</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M19" s="7">
-        <v>528</v>
+        <v>2125</v>
       </c>
       <c r="N19" s="7">
-        <v>359379</v>
+        <v>1448397</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="7">
-        <v>886</v>
-      </c>
-      <c r="D20" s="7">
-        <v>619499</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="H20" s="7">
-        <v>867</v>
-      </c>
-      <c r="I20" s="7">
-        <v>580287</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1753</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1199786</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="7">
-        <v>5</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3343</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="H21" s="7">
-        <v>11</v>
-      </c>
-      <c r="I21" s="7">
-        <v>7578</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="M21" s="7">
-        <v>16</v>
-      </c>
-      <c r="N21" s="7">
-        <v>10921</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="7">
-        <v>173</v>
-      </c>
-      <c r="D22" s="7">
-        <v>121184</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="H22" s="7">
-        <v>183</v>
-      </c>
-      <c r="I22" s="7">
-        <v>116506</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="M22" s="7">
-        <v>356</v>
-      </c>
-      <c r="N22" s="7">
-        <v>237690</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="7">
-        <v>1064</v>
-      </c>
-      <c r="D23" s="7">
-        <v>744026</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" s="7">
-        <v>1061</v>
-      </c>
-      <c r="I23" s="7">
-        <v>704371</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M23" s="7">
-        <v>2125</v>
-      </c>
-      <c r="N23" s="7">
-        <v>1448397</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>118</v>
+      <c r="A20" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5048,8 +4446,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF5A85D-2E98-4DB0-93FF-438F45878748}">
-  <dimension ref="A1:Q24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94E9D71A-DBB6-4D1C-965B-191D70F0A8A8}">
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5065,7 +4463,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5166,66 +4564,70 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>60</v>
+      </c>
+      <c r="D4" s="7">
+        <v>44018</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>301</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>302</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>303</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="I4" s="7">
-        <v>1171</v>
+        <v>50631</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>304</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>305</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>306</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>130</v>
       </c>
       <c r="N4" s="7">
-        <v>1171</v>
+        <v>94649</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>262</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>307</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>309</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5234,13 +4636,13 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>18</v>
+        <v>310</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -5249,62 +4651,64 @@
         <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="D6" s="7">
+        <v>10660</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>311</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>312</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>11373</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>16</v>
+        <v>314</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>17</v>
+        <v>315</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>18</v>
+        <v>316</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="N6" s="7">
-        <v>0</v>
+        <v>22033</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>17</v>
+        <v>317</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>318</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5313,106 +4717,108 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>69</v>
+      </c>
+      <c r="D7" s="7">
+        <v>54678</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="I7" s="7">
-        <v>1171</v>
+        <v>62004</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>152</v>
       </c>
       <c r="N7" s="7">
-        <v>1171</v>
+        <v>116682</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>70</v>
+        <v>549</v>
       </c>
       <c r="D8" s="7">
-        <v>48409</v>
+        <v>396045</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="H8" s="7">
-        <v>60</v>
+        <v>562</v>
       </c>
       <c r="I8" s="7">
-        <v>43919</v>
+        <v>443398</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="M8" s="7">
-        <v>130</v>
+        <v>1111</v>
       </c>
       <c r="N8" s="7">
-        <v>92328</v>
+        <v>839443</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -5421,13 +4827,13 @@
         <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -5436,13 +4842,13 @@
         <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -5451,64 +4857,64 @@
         <v>0</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>206</v>
+        <v>330</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C10" s="7">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="D10" s="7">
-        <v>10348</v>
+        <v>62926</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="H10" s="7">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="I10" s="7">
-        <v>7283</v>
+        <v>73221</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="M10" s="7">
-        <v>22</v>
+        <v>186</v>
       </c>
       <c r="N10" s="7">
-        <v>17631</v>
+        <v>136147</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5517,108 +4923,108 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>83</v>
+        <v>641</v>
       </c>
       <c r="D11" s="7">
-        <v>58757</v>
+        <v>458971</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="H11" s="7">
-        <v>69</v>
+        <v>656</v>
       </c>
       <c r="I11" s="7">
-        <v>51202</v>
+        <v>516619</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M11" s="7">
-        <v>152</v>
+        <v>1297</v>
       </c>
       <c r="N11" s="7">
-        <v>109959</v>
+        <v>975590</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>562</v>
+        <v>182</v>
       </c>
       <c r="D12" s="7">
-        <v>423353</v>
+        <v>119902</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="H12" s="7">
-        <v>549</v>
+        <v>199</v>
       </c>
       <c r="I12" s="7">
-        <v>386772</v>
+        <v>151105</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="M12" s="7">
-        <v>1111</v>
+        <v>381</v>
       </c>
       <c r="N12" s="7">
-        <v>810126</v>
+        <v>271007</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
@@ -5627,13 +5033,13 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -5642,13 +5048,13 @@
         <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -5657,64 +5063,64 @@
         <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>339</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C14" s="7">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="D14" s="7">
-        <v>69011</v>
+        <v>29649</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="H14" s="7">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="I14" s="7">
-        <v>61632</v>
+        <v>32244</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="M14" s="7">
-        <v>186</v>
+        <v>87</v>
       </c>
       <c r="N14" s="7">
-        <v>130642</v>
+        <v>61893</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5723,108 +5129,108 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>656</v>
+        <v>230</v>
       </c>
       <c r="D15" s="7">
-        <v>492364</v>
+        <v>149551</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="H15" s="7">
-        <v>641</v>
+        <v>238</v>
       </c>
       <c r="I15" s="7">
-        <v>448404</v>
+        <v>183349</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M15" s="7">
-        <v>1297</v>
+        <v>468</v>
       </c>
       <c r="N15" s="7">
-        <v>940768</v>
+        <v>332900</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>199</v>
+        <v>791</v>
       </c>
       <c r="D16" s="7">
-        <v>145030</v>
+        <v>559965</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>100</v>
+        <v>360</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="H16" s="7">
-        <v>182</v>
+        <v>831</v>
       </c>
       <c r="I16" s="7">
-        <v>122080</v>
+        <v>645134</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="M16" s="7">
-        <v>381</v>
+        <v>1622</v>
       </c>
       <c r="N16" s="7">
-        <v>267109</v>
+        <v>1205099</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -5833,13 +5239,13 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>357</v>
+        <v>197</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -5848,13 +5254,13 @@
         <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>358</v>
+        <v>197</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -5863,64 +5269,64 @@
         <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>180</v>
+        <v>368</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C18" s="7">
-        <v>39</v>
+        <v>149</v>
       </c>
       <c r="D18" s="7">
-        <v>29553</v>
+        <v>103235</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H18" s="7">
-        <v>48</v>
+        <v>146</v>
       </c>
       <c r="I18" s="7">
-        <v>29290</v>
+        <v>116838</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="M18" s="7">
-        <v>87</v>
+        <v>295</v>
       </c>
       <c r="N18" s="7">
-        <v>58843</v>
+        <v>220073</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>166</v>
+        <v>376</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5929,267 +5335,60 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>238</v>
+        <v>940</v>
       </c>
       <c r="D19" s="7">
-        <v>174583</v>
+        <v>663200</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="H19" s="7">
-        <v>230</v>
+        <v>977</v>
       </c>
       <c r="I19" s="7">
-        <v>151370</v>
+        <v>761972</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M19" s="7">
-        <v>468</v>
+        <v>1917</v>
       </c>
       <c r="N19" s="7">
-        <v>325952</v>
+        <v>1425172</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="7">
-        <v>831</v>
-      </c>
-      <c r="D20" s="7">
-        <v>616792</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="H20" s="7">
-        <v>792</v>
-      </c>
-      <c r="I20" s="7">
-        <v>553942</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1623</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1170734</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="7">
-        <v>0</v>
-      </c>
-      <c r="D21" s="7">
-        <v>0</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="H21" s="7">
-        <v>0</v>
-      </c>
-      <c r="I21" s="7">
-        <v>0</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="M21" s="7">
-        <v>0</v>
-      </c>
-      <c r="N21" s="7">
-        <v>0</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="7">
-        <v>146</v>
-      </c>
-      <c r="D22" s="7">
-        <v>108912</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="H22" s="7">
-        <v>149</v>
-      </c>
-      <c r="I22" s="7">
-        <v>98205</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="M22" s="7">
-        <v>295</v>
-      </c>
-      <c r="N22" s="7">
-        <v>207117</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="7">
-        <v>977</v>
-      </c>
-      <c r="D23" s="7">
-        <v>725704</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" s="7">
-        <v>941</v>
-      </c>
-      <c r="I23" s="7">
-        <v>652147</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M23" s="7">
-        <v>1918</v>
-      </c>
-      <c r="N23" s="7">
-        <v>1377851</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>118</v>
+      <c r="A20" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
